--- a/Data/EC/NIT-8600284155.xlsx
+++ b/Data/EC/NIT-8600284155.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70018435-5C29-445B-BC6F-9156D1B9F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412DE4EC-EEBB-4E80-BB9A-46028B255F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D59F0339-51A5-4993-A4CD-7BA6600CAF49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF40D0B1-C8F5-4924-8324-13A71EA26028}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="133">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,340 +65,343 @@
     <t>CC</t>
   </si>
   <si>
+    <t>30893551</t>
+  </si>
+  <si>
+    <t>INGRID JOHANNA BORJA DIAZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
     <t>1081798136</t>
   </si>
   <si>
     <t>LUZ DARYS CUELLO AROCA</t>
   </si>
   <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>30893551</t>
-  </si>
-  <si>
-    <t>INGRID JOHANNA BORJA DIAZ</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -812,7 +815,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4D43AE-F86D-52D8-D8B4-982CDDCCFFC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1372741F-4501-5631-BA38-763F2EC56F79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,8 +1166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF36699-EE45-4854-97FE-4A1A93F26A11}">
-  <dimension ref="B2:J235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E3550-34DF-4496-90C1-88FA21CD8BBE}">
+  <dimension ref="B2:J237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1188,7 +1191,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1233,7 +1236,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1265,12 +1268,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12904440</v>
+        <v>13025533</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1281,17 +1284,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1318,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1341,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G16" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1364,10 +1367,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G17" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1378,16 +1381,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>52836</v>
+        <v>75480</v>
       </c>
       <c r="G18" s="18">
         <v>1887000</v>
@@ -1407,13 +1410,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G19" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1424,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>75480</v>
@@ -1456,10 +1459,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G21" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1470,10 +1473,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1499,13 +1502,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G23" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1522,13 +1525,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G24" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1539,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>75480</v>
@@ -1562,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>75480</v>
@@ -1591,13 +1594,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G27" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1608,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>75480</v>
@@ -1637,13 +1640,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G29" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1660,13 +1663,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G30" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1677,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>75480</v>
@@ -1700,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>75480</v>
@@ -1729,13 +1732,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G33" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1752,13 +1755,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G34" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1769,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>75480</v>
@@ -1798,13 +1801,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G36" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1815,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>75480</v>
@@ -1844,13 +1847,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G38" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1861,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>75480</v>
@@ -1884,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>75480</v>
@@ -1913,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G41" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1930,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>75480</v>
@@ -1959,13 +1962,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G43" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1976,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>75480</v>
@@ -2005,13 +2008,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G45" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2028,13 +2031,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G46" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2045,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>75480</v>
@@ -2068,13 +2071,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>75480</v>
@@ -2097,13 +2100,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G49" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2120,13 +2123,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G50" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2137,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>75480</v>
@@ -2160,13 +2163,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>75480</v>
@@ -2189,13 +2192,13 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G53" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2206,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>75480</v>
@@ -2235,13 +2238,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G55" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2252,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>75480</v>
@@ -2281,13 +2284,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G57" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2298,13 +2301,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>75480</v>
@@ -2327,13 +2330,13 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G59" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2350,13 +2353,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G60" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2367,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>75480</v>
@@ -2390,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>75480</v>
@@ -2419,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G63" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2436,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>75480</v>
@@ -2465,13 +2468,13 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G65" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2482,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>75480</v>
@@ -2511,13 +2514,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G67" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2528,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>75480</v>
@@ -2557,13 +2560,13 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G69" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2574,13 +2577,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>75480</v>
@@ -2603,13 +2606,13 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G71" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2626,13 +2629,13 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G72" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2643,13 +2646,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>75480</v>
@@ -2666,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>75480</v>
@@ -2695,13 +2698,13 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G75" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2718,13 +2721,13 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G76" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2735,13 +2738,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>75480</v>
@@ -2764,13 +2767,13 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G78" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2781,13 +2784,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>75480</v>
@@ -2804,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>75480</v>
@@ -2833,13 +2836,13 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G81" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2856,13 +2859,13 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G82" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2873,13 +2876,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
         <v>75480</v>
@@ -2902,13 +2905,13 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G84" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2919,13 +2922,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
         <v>75480</v>
@@ -2948,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G86" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2965,13 +2968,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>75480</v>
@@ -2988,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
         <v>75480</v>
@@ -3017,13 +3020,13 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G89" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3034,13 +3037,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>75480</v>
@@ -3063,13 +3066,13 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G91" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3086,13 +3089,13 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G92" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3103,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
         <v>75480</v>
@@ -3126,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
         <v>75480</v>
@@ -3155,13 +3158,13 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G95" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3172,13 +3175,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
         <v>75480</v>
@@ -3201,13 +3204,13 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F97" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G97" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3218,13 +3221,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F98" s="18">
         <v>75480</v>
@@ -3247,13 +3250,13 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F99" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G99" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3270,13 +3273,13 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F100" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G100" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3287,13 +3290,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F101" s="18">
         <v>75480</v>
@@ -3310,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F102" s="18">
         <v>75480</v>
@@ -3339,13 +3342,13 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F103" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G103" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3356,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F104" s="18">
         <v>75480</v>
@@ -3385,13 +3388,13 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="F105" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G105" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3402,13 +3405,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F106" s="18">
         <v>75480</v>
@@ -3431,13 +3434,13 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F107" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G107" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3454,13 +3457,13 @@
         <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F108" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G108" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3471,13 +3474,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F109" s="18">
         <v>75480</v>
@@ -3494,13 +3497,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F110" s="18">
         <v>75480</v>
@@ -3523,13 +3526,13 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F111" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G111" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3540,13 +3543,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F112" s="18">
         <v>75480</v>
@@ -3569,13 +3572,13 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F113" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G113" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3592,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="F114" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G114" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3609,13 +3612,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="F115" s="18">
         <v>75480</v>
@@ -3632,13 +3635,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F116" s="18">
         <v>75480</v>
@@ -3661,13 +3664,13 @@
         <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F117" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G117" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3684,13 +3687,13 @@
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F118" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G118" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3701,13 +3704,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F119" s="18">
         <v>75480</v>
@@ -3724,13 +3727,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="F120" s="18">
         <v>75480</v>
@@ -3753,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F121" s="18">
-        <v>45613</v>
+        <v>75480</v>
       </c>
       <c r="G121" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3776,13 +3779,13 @@
         <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="F122" s="18">
-        <v>45613</v>
+        <v>52836</v>
       </c>
       <c r="G122" s="18">
-        <v>1140320</v>
+        <v>1887000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3793,19 +3796,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F123" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G123" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3816,13 +3819,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F124" s="18">
         <v>45613</v>
@@ -3839,19 +3842,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="F125" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G125" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3862,19 +3865,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D126" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E126" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F126" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G126" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3885,13 +3888,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F127" s="18">
         <v>45613</v>
@@ -3908,13 +3911,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F128" s="18">
         <v>45613</v>
@@ -3931,19 +3934,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F129" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G129" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3954,13 +3957,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F130" s="18">
         <v>45613</v>
@@ -3977,19 +3980,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F131" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G131" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4000,19 +4003,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F132" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G132" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4023,13 +4026,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F133" s="18">
         <v>45613</v>
@@ -4046,19 +4049,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F134" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G134" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4069,13 +4072,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F135" s="18">
         <v>45613</v>
@@ -4092,19 +4095,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F136" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G136" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4115,13 +4118,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F137" s="18">
         <v>45613</v>
@@ -4138,19 +4141,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F138" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G138" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4161,13 +4164,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F139" s="18">
         <v>45613</v>
@@ -4184,19 +4187,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F140" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G140" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4207,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="F141" s="18">
         <v>45613</v>
@@ -4230,19 +4233,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F142" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G142" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4253,13 +4256,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F143" s="18">
         <v>45613</v>
@@ -4276,19 +4279,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F144" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G144" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4299,13 +4302,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F145" s="18">
         <v>45613</v>
@@ -4322,19 +4325,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F146" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G146" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4345,13 +4348,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F147" s="18">
         <v>45613</v>
@@ -4368,19 +4371,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F148" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G148" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4391,13 +4394,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F149" s="18">
         <v>45613</v>
@@ -4414,19 +4417,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F150" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G150" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4437,13 +4440,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F151" s="18">
         <v>45613</v>
@@ -4460,19 +4463,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F152" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G152" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4483,13 +4486,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F153" s="18">
         <v>45613</v>
@@ -4506,13 +4509,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F154" s="18">
         <v>45613</v>
@@ -4529,19 +4532,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F155" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G155" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4552,19 +4555,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F156" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G156" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4575,13 +4578,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F157" s="18">
         <v>45613</v>
@@ -4598,19 +4601,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F158" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G158" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4621,13 +4624,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F159" s="18">
         <v>45613</v>
@@ -4644,19 +4647,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F160" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G160" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4667,13 +4670,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F161" s="18">
         <v>45613</v>
@@ -4690,19 +4693,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F162" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G162" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4713,13 +4716,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F163" s="18">
         <v>45613</v>
@@ -4736,13 +4739,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F164" s="18">
         <v>45613</v>
@@ -4759,19 +4762,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F165" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G165" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4782,13 +4785,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F166" s="18">
         <v>45613</v>
@@ -4805,19 +4808,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F167" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G167" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4828,13 +4831,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F168" s="18">
         <v>45613</v>
@@ -4851,19 +4854,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F169" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G169" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4874,19 +4877,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F170" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G170" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4897,13 +4900,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F171" s="18">
         <v>45613</v>
@@ -4920,19 +4923,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F172" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G172" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4943,13 +4946,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F173" s="18">
         <v>45613</v>
@@ -4966,19 +4969,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F174" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G174" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4989,13 +4992,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F175" s="18">
         <v>45613</v>
@@ -5012,13 +5015,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F176" s="18">
         <v>45613</v>
@@ -5035,19 +5038,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F177" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G177" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5058,19 +5061,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F178" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G178" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5081,13 +5084,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F179" s="18">
         <v>45613</v>
@@ -5104,13 +5107,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F180" s="18">
         <v>45613</v>
@@ -5127,19 +5130,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F181" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G181" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5150,13 +5153,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F182" s="18">
         <v>45613</v>
@@ -5173,19 +5176,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F183" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G183" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5196,13 +5199,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F184" s="18">
         <v>45613</v>
@@ -5219,19 +5222,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F185" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G185" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5242,19 +5245,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F186" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G186" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5265,13 +5268,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F187" s="18">
         <v>45613</v>
@@ -5288,13 +5291,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F188" s="18">
         <v>45613</v>
@@ -5311,19 +5314,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F189" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G189" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5334,19 +5337,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F190" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G190" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5357,13 +5360,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F191" s="18">
         <v>45613</v>
@@ -5380,13 +5383,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F192" s="18">
         <v>45613</v>
@@ -5403,19 +5406,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F193" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G193" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5426,13 +5429,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F194" s="18">
         <v>45613</v>
@@ -5449,19 +5452,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F195" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G195" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5472,19 +5475,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F196" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G196" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5495,13 +5498,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F197" s="18">
         <v>45613</v>
@@ -5518,19 +5521,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F198" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G198" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5541,13 +5544,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F199" s="18">
         <v>45613</v>
@@ -5564,13 +5567,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F200" s="18">
         <v>45613</v>
@@ -5587,19 +5590,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F201" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G201" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5610,13 +5613,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F202" s="18">
         <v>45613</v>
@@ -5633,19 +5636,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F203" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G203" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5656,19 +5659,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F204" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G204" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5679,13 +5682,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F205" s="18">
         <v>45613</v>
@@ -5702,19 +5705,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F206" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G206" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5725,13 +5728,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F207" s="18">
         <v>45613</v>
@@ -5748,19 +5751,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F208" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G208" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5771,13 +5774,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F209" s="18">
         <v>45613</v>
@@ -5794,13 +5797,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F210" s="18">
         <v>45613</v>
@@ -5817,19 +5820,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F211" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G211" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5840,13 +5843,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F212" s="18">
         <v>45613</v>
@@ -5863,19 +5866,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F213" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G213" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5886,19 +5889,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F214" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G214" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5909,13 +5912,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F215" s="18">
         <v>45613</v>
@@ -5932,19 +5935,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F216" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G216" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5955,13 +5958,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F217" s="18">
         <v>45613</v>
@@ -5978,19 +5981,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F218" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G218" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6001,13 +6004,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F219" s="18">
         <v>45613</v>
@@ -6024,19 +6027,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F220" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G220" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6047,13 +6050,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F221" s="18">
         <v>45613</v>
@@ -6070,19 +6073,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F222" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G222" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6093,13 +6096,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F223" s="18">
         <v>45613</v>
@@ -6116,19 +6119,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F224" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G224" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6139,13 +6142,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F225" s="18">
         <v>45613</v>
@@ -6162,19 +6165,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F226" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G226" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6185,13 +6188,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F227" s="18">
         <v>45613</v>
@@ -6208,75 +6211,121 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F228" s="18">
-        <v>75480</v>
+        <v>45613</v>
       </c>
       <c r="G228" s="18">
-        <v>1887000</v>
+        <v>1140320</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
       <c r="J228" s="20"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B229" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E229" s="22" t="s">
+      <c r="B229" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E229" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F229" s="18">
+        <v>45613</v>
+      </c>
+      <c r="G229" s="18">
+        <v>1140320</v>
+      </c>
+      <c r="H229" s="19"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="20"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B230" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E230" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F229" s="24">
-        <v>45613</v>
-      </c>
-      <c r="G229" s="24">
-        <v>1140320</v>
-      </c>
-      <c r="H229" s="25"/>
-      <c r="I229" s="25"/>
-      <c r="J229" s="26"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B234" s="32" t="s">
+      <c r="F230" s="18">
+        <v>45613</v>
+      </c>
+      <c r="G230" s="18">
+        <v>1140320</v>
+      </c>
+      <c r="H230" s="19"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="20"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B231" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E231" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F231" s="24">
+        <v>45613</v>
+      </c>
+      <c r="G231" s="24">
+        <v>1140320</v>
+      </c>
+      <c r="H231" s="25"/>
+      <c r="I231" s="25"/>
+      <c r="J231" s="26"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B236" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C236" s="32"/>
+      <c r="H236" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B237" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C234" s="32"/>
-      <c r="H234" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B235" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C235" s="32"/>
-      <c r="H235" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
+      <c r="C237" s="32"/>
+      <c r="H237" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="H235:J235"/>
-    <mergeCell ref="H234:J234"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="H237:J237"/>
+    <mergeCell ref="H236:J236"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8600284155.xlsx
+++ b/Data/EC/NIT-8600284155.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F65B02-CDBA-47DE-9C03-7BBE120200D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5818F5A-C4E6-44B2-BACD-59496DE86977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8040EA3F-BCBF-42F0-85CA-AAB13871F834}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{094D7FA1-9FCF-4B3C-B9F8-5DB650B0CE32}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="135">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,9 +506,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -518,7 +519,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -712,29 +715,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,19 +756,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,7 +827,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC63761-24FC-6053-E76A-5CAAE4CDB829}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5061B458-8204-6603-C063-EC34693A4000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,8 +1178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ADBCCC-2621-4DEF-A5D3-7E532DDA32DB}">
-  <dimension ref="B2:J239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809EF80B-9230-40AC-893E-90BF5D36A77B}">
+  <dimension ref="B2:J241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1192,57 +1201,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8600284155</v>
       </c>
@@ -1271,12 +1280,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>13146626</v>
+        <v>13267719</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1287,17 +1296,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1324,13 +1333,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1343,18 +1352,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1366,18 +1375,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1389,18 +1398,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>52836</v>
       </c>
-      <c r="G18" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1412,18 +1421,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1435,18 +1444,18 @@
       <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1458,18 +1467,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1481,18 +1490,18 @@
       <c r="D22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1504,18 +1513,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1527,18 +1536,18 @@
       <c r="D24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1550,18 +1559,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1573,18 +1582,18 @@
       <c r="D26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1596,18 +1605,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1619,18 +1628,18 @@
       <c r="D28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1642,18 +1651,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1665,18 +1674,18 @@
       <c r="D30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1688,18 +1697,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1711,18 +1720,18 @@
       <c r="D32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1734,18 +1743,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1757,18 +1766,18 @@
       <c r="D34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1780,18 +1789,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1803,18 +1812,18 @@
       <c r="D36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1826,18 +1835,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1849,18 +1858,18 @@
       <c r="D38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1872,18 +1881,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1895,18 +1904,18 @@
       <c r="D40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1918,18 +1927,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1941,18 +1950,18 @@
       <c r="D42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1964,18 +1973,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1987,18 +1996,18 @@
       <c r="D44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -2010,18 +2019,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -2033,18 +2042,18 @@
       <c r="D46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -2056,18 +2065,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2079,18 +2088,18 @@
       <c r="D48" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2102,18 +2111,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2125,18 +2134,18 @@
       <c r="D50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2148,18 +2157,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2171,18 +2180,18 @@
       <c r="D52" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2194,18 +2203,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2217,18 +2226,18 @@
       <c r="D54" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2240,18 +2249,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2263,18 +2272,18 @@
       <c r="D56" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2286,18 +2295,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2309,18 +2318,18 @@
       <c r="D58" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2332,18 +2341,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2355,18 +2364,18 @@
       <c r="D60" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2378,18 +2387,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2401,18 +2410,18 @@
       <c r="D62" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2424,18 +2433,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2447,18 +2456,18 @@
       <c r="D64" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2470,18 +2479,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2493,18 +2502,18 @@
       <c r="D66" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2516,18 +2525,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2539,18 +2548,18 @@
       <c r="D68" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2562,18 +2571,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2585,18 +2594,18 @@
       <c r="D70" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2608,18 +2617,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2631,18 +2640,18 @@
       <c r="D72" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2654,18 +2663,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2677,18 +2686,18 @@
       <c r="D74" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2700,18 +2709,18 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F75" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2723,18 +2732,18 @@
       <c r="D76" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2746,18 +2755,18 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2769,18 +2778,18 @@
       <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2792,18 +2801,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2815,18 +2824,18 @@
       <c r="D80" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2838,18 +2847,18 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2861,18 +2870,18 @@
       <c r="D82" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2884,18 +2893,18 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F83" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2907,18 +2916,18 @@
       <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F84" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2930,18 +2939,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2953,18 +2962,18 @@
       <c r="D86" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F86" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2976,18 +2985,18 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2999,18 +3008,18 @@
       <c r="D88" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -3022,18 +3031,18 @@
       <c r="D89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F89" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -3045,18 +3054,18 @@
       <c r="D90" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F90" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -3068,18 +3077,18 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F91" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3091,18 +3100,18 @@
       <c r="D92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3114,18 +3123,18 @@
       <c r="D93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F93" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3137,18 +3146,18 @@
       <c r="D94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3160,18 +3169,18 @@
       <c r="D95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F95" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3183,18 +3192,18 @@
       <c r="D96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F96" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3206,18 +3215,18 @@
       <c r="D97" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G97" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3229,18 +3238,18 @@
       <c r="D98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3252,18 +3261,18 @@
       <c r="D99" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F99" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3275,18 +3284,18 @@
       <c r="D100" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F100" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3298,18 +3307,18 @@
       <c r="D101" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F101" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3321,18 +3330,18 @@
       <c r="D102" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3344,18 +3353,18 @@
       <c r="D103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3367,18 +3376,18 @@
       <c r="D104" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F104" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3390,18 +3399,18 @@
       <c r="D105" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F105" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3413,18 +3422,18 @@
       <c r="D106" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3436,18 +3445,18 @@
       <c r="D107" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G107" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3459,18 +3468,18 @@
       <c r="D108" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3482,18 +3491,18 @@
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F109" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3505,18 +3514,18 @@
       <c r="D110" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F110" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G110" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3528,18 +3537,18 @@
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F111" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G111" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3551,18 +3560,18 @@
       <c r="D112" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F112" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G112" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3574,18 +3583,18 @@
       <c r="D113" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F113" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G113" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3597,18 +3606,18 @@
       <c r="D114" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F114" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G114" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3620,18 +3629,18 @@
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F115" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G115" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3643,18 +3652,18 @@
       <c r="D116" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F116" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G116" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3666,18 +3675,18 @@
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F117" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G117" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3689,18 +3698,18 @@
       <c r="D118" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G118" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3712,18 +3721,18 @@
       <c r="D119" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F119" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G119" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3735,18 +3744,18 @@
       <c r="D120" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F120" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G120" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3758,18 +3767,18 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F121" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G121" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3781,18 +3790,18 @@
       <c r="D122" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G122" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3804,18 +3813,18 @@
       <c r="D123" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G123" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3827,18 +3836,18 @@
       <c r="D124" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F124" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G124" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G124" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3850,18 +3859,18 @@
       <c r="D125" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F125" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G125" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3873,18 +3882,18 @@
       <c r="D126" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F126" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G126" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3896,18 +3905,18 @@
       <c r="D127" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F127" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G127" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="F127" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G127" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3919,18 +3928,18 @@
       <c r="D128" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F128" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G128" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3942,18 +3951,18 @@
       <c r="D129" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F129" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G129" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3965,18 +3974,18 @@
       <c r="D130" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F130" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="F130" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G130" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3988,18 +3997,18 @@
       <c r="D131" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F131" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G131" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -4011,18 +4020,18 @@
       <c r="D132" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F132" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G132" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -4034,18 +4043,18 @@
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F133" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G133" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -4057,18 +4066,18 @@
       <c r="D134" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F134" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G134" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -4080,18 +4089,18 @@
       <c r="D135" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F135" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G135" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4103,18 +4112,18 @@
       <c r="D136" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F136" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G136" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4126,18 +4135,18 @@
       <c r="D137" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F137" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G137" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4149,18 +4158,18 @@
       <c r="D138" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F138" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G138" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4172,18 +4181,18 @@
       <c r="D139" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F139" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G139" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="F139" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G139" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4195,18 +4204,18 @@
       <c r="D140" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F140" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="F140" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G140" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4218,18 +4227,18 @@
       <c r="D141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F141" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G141" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4241,18 +4250,18 @@
       <c r="D142" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F142" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="F142" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G142" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4264,18 +4273,18 @@
       <c r="D143" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F143" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="F143" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G143" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4287,18 +4296,18 @@
       <c r="D144" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F144" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G144" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4310,18 +4319,18 @@
       <c r="D145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F145" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G145" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4333,18 +4342,18 @@
       <c r="D146" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F146" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="F146" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G146" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4356,18 +4365,18 @@
       <c r="D147" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F147" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="F147" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G147" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4379,18 +4388,18 @@
       <c r="D148" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F148" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="F148" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G148" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4402,18 +4411,18 @@
       <c r="D149" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F149" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G149" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4425,18 +4434,18 @@
       <c r="D150" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F150" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="F150" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G150" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4448,18 +4457,18 @@
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F151" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="F151" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G151" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4471,18 +4480,18 @@
       <c r="D152" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F152" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="F152" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G152" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4494,18 +4503,18 @@
       <c r="D153" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F153" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G153" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4517,18 +4526,18 @@
       <c r="D154" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F154" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G154" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="F154" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G154" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4540,18 +4549,18 @@
       <c r="D155" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F155" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G155" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="F155" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G155" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4563,18 +4572,18 @@
       <c r="D156" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F156" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G156" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G156" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4586,18 +4595,18 @@
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F157" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G157" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G157" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4609,18 +4618,18 @@
       <c r="D158" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F158" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G158" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="F158" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G158" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4632,18 +4641,18 @@
       <c r="D159" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F159" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G159" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="F159" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G159" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4655,18 +4664,18 @@
       <c r="D160" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F160" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G160" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G160" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4678,18 +4687,18 @@
       <c r="D161" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F161" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G161" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G161" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4701,18 +4710,18 @@
       <c r="D162" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F162" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G162" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="F162" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G162" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4724,18 +4733,18 @@
       <c r="D163" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F163" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G163" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="F163" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G163" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4747,18 +4756,18 @@
       <c r="D164" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F164" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G164" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G164" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4770,18 +4779,18 @@
       <c r="D165" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F165" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G165" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G165" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4793,18 +4802,18 @@
       <c r="D166" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F166" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G166" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="F166" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G166" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4816,18 +4825,18 @@
       <c r="D167" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F167" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G167" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="F167" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G167" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4839,18 +4848,18 @@
       <c r="D168" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F168" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G168" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="F168" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G168" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4862,18 +4871,18 @@
       <c r="D169" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F169" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G169" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="F169" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G169" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4885,18 +4894,18 @@
       <c r="D170" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F170" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G170" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="F170" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G170" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4908,18 +4917,18 @@
       <c r="D171" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F171" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G171" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="F171" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G171" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4931,18 +4940,18 @@
       <c r="D172" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F172" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G172" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="F172" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G172" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4954,18 +4963,18 @@
       <c r="D173" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F173" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G173" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="F173" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G173" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -4977,18 +4986,18 @@
       <c r="D174" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F174" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G174" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="F174" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G174" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -5000,18 +5009,18 @@
       <c r="D175" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F175" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G175" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="F175" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G175" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -5023,18 +5032,18 @@
       <c r="D176" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F176" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G176" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="F176" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G176" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -5046,18 +5055,18 @@
       <c r="D177" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F177" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G177" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="F177" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G177" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
@@ -5069,18 +5078,18 @@
       <c r="D178" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F178" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G178" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="F178" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G178" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
@@ -5092,18 +5101,18 @@
       <c r="D179" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F179" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G179" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="F179" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G179" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
@@ -5115,18 +5124,18 @@
       <c r="D180" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F180" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G180" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
+      <c r="F180" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G180" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
@@ -5138,18 +5147,18 @@
       <c r="D181" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F181" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G181" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
+      <c r="F181" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G181" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
@@ -5161,18 +5170,18 @@
       <c r="D182" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F182" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G182" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
+      <c r="F182" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G182" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
@@ -5184,18 +5193,18 @@
       <c r="D183" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F183" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G183" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
+      <c r="F183" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G183" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
@@ -5207,18 +5216,18 @@
       <c r="D184" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F184" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G184" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
+      <c r="F184" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G184" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
@@ -5230,18 +5239,18 @@
       <c r="D185" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F185" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G185" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
+      <c r="F185" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G185" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
@@ -5253,18 +5262,18 @@
       <c r="D186" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F186" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G186" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
+      <c r="F186" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G186" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
@@ -5276,18 +5285,18 @@
       <c r="D187" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F187" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G187" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
+      <c r="F187" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G187" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
@@ -5299,18 +5308,18 @@
       <c r="D188" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F188" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G188" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="F188" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G188" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
@@ -5322,18 +5331,18 @@
       <c r="D189" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F189" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G189" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="F189" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G189" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
@@ -5345,18 +5354,18 @@
       <c r="D190" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F190" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G190" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
+      <c r="F190" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G190" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
@@ -5368,18 +5377,18 @@
       <c r="D191" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F191" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G191" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
+      <c r="F191" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G191" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
@@ -5391,18 +5400,18 @@
       <c r="D192" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F192" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G192" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
+      <c r="F192" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G192" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
@@ -5414,18 +5423,18 @@
       <c r="D193" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F193" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G193" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
+      <c r="F193" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G193" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
@@ -5437,18 +5446,18 @@
       <c r="D194" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F194" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G194" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
+      <c r="F194" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G194" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
@@ -5460,18 +5469,18 @@
       <c r="D195" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F195" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G195" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="F195" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G195" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
@@ -5483,18 +5492,18 @@
       <c r="D196" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F196" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G196" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="F196" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G196" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
@@ -5506,18 +5515,18 @@
       <c r="D197" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F197" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G197" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="F197" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G197" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
@@ -5529,18 +5538,18 @@
       <c r="D198" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F198" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G198" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="F198" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G198" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
@@ -5552,18 +5561,18 @@
       <c r="D199" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F199" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G199" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="F199" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G199" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
@@ -5575,18 +5584,18 @@
       <c r="D200" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F200" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G200" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
+      <c r="F200" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G200" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
@@ -5598,18 +5607,18 @@
       <c r="D201" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F201" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G201" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="F201" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G201" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
@@ -5621,18 +5630,18 @@
       <c r="D202" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F202" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G202" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
+      <c r="F202" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G202" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
@@ -5644,18 +5653,18 @@
       <c r="D203" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F203" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G203" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
+      <c r="F203" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G203" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
@@ -5667,18 +5676,18 @@
       <c r="D204" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F204" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G204" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
+      <c r="F204" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G204" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
@@ -5690,18 +5699,18 @@
       <c r="D205" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F205" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G205" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
+      <c r="F205" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G205" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
@@ -5713,18 +5722,18 @@
       <c r="D206" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F206" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G206" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
+      <c r="F206" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G206" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
@@ -5736,18 +5745,18 @@
       <c r="D207" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F207" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G207" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
+      <c r="F207" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G207" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
@@ -5759,18 +5768,18 @@
       <c r="D208" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F208" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G208" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
+      <c r="F208" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G208" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
@@ -5782,18 +5791,18 @@
       <c r="D209" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F209" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G209" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
+      <c r="F209" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G209" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
@@ -5805,18 +5814,18 @@
       <c r="D210" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F210" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G210" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
+      <c r="F210" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G210" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
@@ -5828,18 +5837,18 @@
       <c r="D211" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F211" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G211" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
+      <c r="F211" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G211" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
@@ -5851,18 +5860,18 @@
       <c r="D212" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F212" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G212" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
+      <c r="F212" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G212" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="21"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
@@ -5874,18 +5883,18 @@
       <c r="D213" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F213" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G213" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="F213" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G213" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
@@ -5897,18 +5906,18 @@
       <c r="D214" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F214" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G214" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
+      <c r="F214" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G214" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
@@ -5920,18 +5929,18 @@
       <c r="D215" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F215" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G215" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
+      <c r="F215" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G215" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
@@ -5943,18 +5952,18 @@
       <c r="D216" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F216" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G216" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
+      <c r="F216" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G216" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="21"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
@@ -5966,18 +5975,18 @@
       <c r="D217" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F217" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G217" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
+      <c r="F217" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G217" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="21"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
@@ -5989,18 +5998,18 @@
       <c r="D218" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F218" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G218" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
+      <c r="F218" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G218" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="21"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
@@ -6012,18 +6021,18 @@
       <c r="D219" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E219" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F219" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G219" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
+      <c r="F219" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G219" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="21"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
@@ -6035,18 +6044,18 @@
       <c r="D220" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F220" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
+      <c r="F220" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G220" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="21"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
@@ -6058,18 +6067,18 @@
       <c r="D221" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="E221" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F221" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G221" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
+      <c r="F221" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G221" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="21"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
@@ -6081,18 +6090,18 @@
       <c r="D222" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="E222" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F222" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G222" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="F222" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G222" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="21"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
@@ -6104,18 +6113,18 @@
       <c r="D223" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="E223" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F223" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G223" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
+      <c r="F223" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G223" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="21"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
@@ -6127,18 +6136,18 @@
       <c r="D224" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F224" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G224" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
+      <c r="F224" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G224" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="21"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
@@ -6150,18 +6159,18 @@
       <c r="D225" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F225" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G225" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
+      <c r="F225" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G225" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="21"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
@@ -6173,18 +6182,18 @@
       <c r="D226" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F226" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G226" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
+      <c r="F226" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G226" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="21"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
@@ -6196,18 +6205,18 @@
       <c r="D227" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F227" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G227" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
+      <c r="F227" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G227" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="21"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
@@ -6219,18 +6228,18 @@
       <c r="D228" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F228" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G228" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
+      <c r="F228" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G228" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="21"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
@@ -6242,18 +6251,18 @@
       <c r="D229" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F229" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G229" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
+      <c r="F229" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G229" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="21"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
@@ -6265,18 +6274,18 @@
       <c r="D230" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F230" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G230" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
+      <c r="F230" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G230" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="21"/>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
@@ -6288,18 +6297,18 @@
       <c r="D231" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F231" s="18">
-        <v>45613</v>
-      </c>
-      <c r="G231" s="18">
-        <v>1140320</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
+      <c r="F231" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G231" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="21"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
@@ -6311,70 +6320,116 @@
       <c r="D232" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F232" s="18">
-        <v>75480</v>
-      </c>
-      <c r="G232" s="18">
-        <v>1887000</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
+      <c r="F232" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G232" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="21"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B233" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C233" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E233" s="22" t="s">
+      <c r="B233" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F233" s="24">
-        <v>45613</v>
-      </c>
-      <c r="G233" s="24">
-        <v>1140320</v>
-      </c>
-      <c r="H233" s="25"/>
-      <c r="I233" s="25"/>
-      <c r="J233" s="26"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="32" t="s">
+      <c r="F233" s="19">
+        <v>45613</v>
+      </c>
+      <c r="G233" s="19">
+        <v>1140320</v>
+      </c>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="21"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B234" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F234" s="19">
+        <v>75480</v>
+      </c>
+      <c r="G234" s="19">
+        <v>1887000</v>
+      </c>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="21"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B235" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F235" s="26">
+        <v>45613</v>
+      </c>
+      <c r="G235" s="26">
+        <v>1140320</v>
+      </c>
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+      <c r="J235" s="28"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B240" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C240" s="34"/>
+      <c r="H240" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B241" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C238" s="32"/>
-      <c r="H238" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C239" s="32"/>
-      <c r="H239" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
+      <c r="C241" s="34"/>
+      <c r="H241" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="H239:J239"/>
-    <mergeCell ref="H238:J238"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="H241:J241"/>
+    <mergeCell ref="H240:J240"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
